--- a/game flow/Premier_League_GameFlow.xlsx
+++ b/game flow/Premier_League_GameFlow.xlsx
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.664572864321608</v>
+        <v>5.648741418764302</v>
       </c>
       <c r="C3" t="n">
-        <v>7.641748942172073</v>
+        <v>7.679319371727749</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6887135922330098</v>
+        <v>0.6848201774871555</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04914483654470665</v>
+        <v>0.04954533297673175</v>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -527,19 +527,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.93984962406015</v>
+        <v>5.012121212121212</v>
       </c>
       <c r="C4" t="n">
-        <v>6.725138121546961</v>
+        <v>6.745019920318725</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5292163153070577</v>
+        <v>0.5270105379922352</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06230975828111011</v>
+        <v>0.06273731446323783</v>
       </c>
       <c r="G4" t="n">
         <v>-12</v>
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.351351351351352</v>
+        <v>4.339958158995816</v>
       </c>
       <c r="C5" t="n">
-        <v>7.130637636080871</v>
+        <v>7.149851632047477</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5362728062554301</v>
+        <v>0.5438832539846823</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0701465360270528</v>
+        <v>0.06906758756783424</v>
       </c>
       <c r="G5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.463258785942492</v>
+        <v>4.500515995872033</v>
       </c>
       <c r="C6" t="n">
-        <v>9.379362670713201</v>
+        <v>9.593519882179676</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6084932440104462</v>
+        <v>0.6126921818776578</v>
       </c>
       <c r="E6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05596818966164004</v>
+        <v>0.05496314320475202</v>
       </c>
       <c r="G6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.875542691751085</v>
+        <v>4.878467635402906</v>
       </c>
       <c r="C7" t="n">
-        <v>7.790163934426229</v>
+        <v>7.691019786910198</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6921572663647592</v>
+        <v>0.6799582265261559</v>
       </c>
       <c r="E7" t="n">
+        <v>19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06433655133535339</v>
+      </c>
+      <c r="G7" t="n">
         <v>16</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.06233082706766917</v>
-      </c>
-      <c r="G7" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -652,222 +652,222 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.12962962962963</v>
+        <v>6.091482649842272</v>
       </c>
       <c r="C9" t="n">
-        <v>5.514774494556765</v>
+        <v>5.526785714285714</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4494268374915711</v>
+        <v>0.4536886577835554</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07809202195018995</v>
+        <v>0.07662062707934268</v>
       </c>
       <c r="G9" t="n">
-        <v>-18</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.448883666274971</v>
+        <v>4.309803921568627</v>
       </c>
       <c r="C10" t="n">
-        <v>8.066132264529058</v>
+        <v>6.265402843601896</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3850555368562774</v>
+        <v>0.5041747683861375</v>
       </c>
       <c r="E10" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08790391156462585</v>
+        <v>0.09870303261491513</v>
       </c>
       <c r="G10" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.346491228070176</v>
+        <v>4.932182490752158</v>
       </c>
       <c r="C11" t="n">
-        <v>9.533670033670033</v>
+        <v>7.020618556701031</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4966139954853273</v>
+        <v>0.5413231874867893</v>
       </c>
       <c r="E11" t="n">
+        <v>26</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.07550363974944981</v>
+      </c>
+      <c r="G11" t="n">
         <v>17</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.07588800668616799</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.331967213114754</v>
+        <v>5.429057888762769</v>
       </c>
       <c r="C12" t="n">
-        <v>6.188925081433225</v>
+        <v>8.075289575289576</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5070154577883472</v>
+        <v>0.3833404619332763</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09887930179510067</v>
+        <v>0.08691206543967279</v>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.956072351421189</v>
+        <v>5.413431269674711</v>
       </c>
       <c r="C13" t="n">
-        <v>7.088414634146342</v>
+        <v>9.52808988764045</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5437808219178082</v>
+        <v>0.4887622324981181</v>
       </c>
       <c r="E13" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07503267973856209</v>
+        <v>0.07578068555832063</v>
       </c>
       <c r="G13" t="n">
-        <v>16</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.748922413793103</v>
+        <v>5.878419452887538</v>
       </c>
       <c r="C14" t="n">
-        <v>7.927007299270073</v>
+        <v>7.031353135313531</v>
       </c>
       <c r="D14" t="n">
-        <v>0.513182556541297</v>
+        <v>0.4300120048019208</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06639590323150274</v>
+        <v>0.09257244585105331</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tottenham Hotspur</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.389759665621734</v>
+        <v>4.715139442231076</v>
       </c>
       <c r="C15" t="n">
-        <v>6.468175388967468</v>
+        <v>8.073569482288828</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4847030593881224</v>
+        <v>0.5179259605278523</v>
       </c>
       <c r="E15" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07910249096786462</v>
+        <v>0.06755548329404114</v>
       </c>
       <c r="G15" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Leeds United</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.893873085339169</v>
+        <v>5.559793814432989</v>
       </c>
       <c r="C16" t="n">
-        <v>6.932504440497335</v>
+        <v>8.043261231281198</v>
       </c>
       <c r="D16" t="n">
-        <v>0.421535677352637</v>
+        <v>0.4071159767362299</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0935197225834417</v>
+        <v>0.07290772020230939</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Leeds United</t>
+          <t>Tottenham Hotspur</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.400213447171825</v>
+        <v>4.339698492462311</v>
       </c>
       <c r="C17" t="n">
-        <v>8.041379310344828</v>
+        <v>6.462482946793997</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4123735871505056</v>
+        <v>0.4862776752767528</v>
       </c>
       <c r="E17" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0730553090801538</v>
+        <v>0.07963386727688787</v>
       </c>
       <c r="G17" t="n">
-        <v>12</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="18">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.60972850678733</v>
+        <v>5.531521739130435</v>
       </c>
       <c r="C18" t="n">
-        <v>6.327073552425665</v>
+        <v>6.324812030075188</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5028374318459998</v>
+        <v>0.5122107969151671</v>
       </c>
       <c r="E18" t="n">
         <v>27</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08314909160818995</v>
+        <v>0.08233023982357805</v>
       </c>
       <c r="G18" t="n">
-        <v>-23</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="19">
@@ -902,22 +902,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.446560846560846</v>
+        <v>5.457403651115619</v>
       </c>
       <c r="C19" t="n">
-        <v>6.367972742759796</v>
+        <v>6.289902280130293</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3973432518597237</v>
+        <v>0.3929440389294404</v>
       </c>
       <c r="E19" t="n">
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0875106202209006</v>
+        <v>0.08742945100051308</v>
       </c>
       <c r="G19" t="n">
-        <v>-32</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="20">
@@ -927,22 +927,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.925438596491228</v>
+        <v>5.986214209968186</v>
       </c>
       <c r="C20" t="n">
-        <v>6.602023608768971</v>
+        <v>6.547967479674797</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3781814341535537</v>
+        <v>0.3759959141981614</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08793049303883597</v>
+        <v>0.08957341169318067</v>
       </c>
       <c r="G20" t="n">
-        <v>-42</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="21">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.786266924564797</v>
+        <v>4.764212488350419</v>
       </c>
       <c r="C21" t="n">
-        <v>6.804311774461028</v>
+        <v>6.751196172248804</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3796700372538585</v>
+        <v>0.3748973727422003</v>
       </c>
       <c r="E21" t="n">
         <v>24</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08059451538622567</v>
+        <v>0.08159739863834976</v>
       </c>
       <c r="G21" t="n">
-        <v>-28</v>
+        <v>-32</v>
       </c>
     </row>
   </sheetData>

--- a/game flow/Premier_League_GameFlow.xlsx
+++ b/game flow/Premier_League_GameFlow.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.76829268292683</v>
+        <v>4.738623103850641</v>
       </c>
       <c r="C2" t="n">
-        <v>8.755395683453237</v>
+        <v>8.661485319516407</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6250581665891112</v>
+        <v>0.6291353594258159</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06095032755618211</v>
+        <v>0.06058668371832787</v>
       </c>
       <c r="G2" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.085155350978136</v>
+        <v>5.050884955752212</v>
       </c>
       <c r="C8" t="n">
-        <v>7.107667210440456</v>
+        <v>7.054773082942097</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4128239445187979</v>
+        <v>0.4071428571428571</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09452940572718875</v>
+        <v>0.09525703490106394</v>
       </c>
       <c r="G8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
